--- a/Prototype/PHPSCRIPTS/Experiments/Results2016.xlsx
+++ b/Prototype/PHPSCRIPTS/Experiments/Results2016.xlsx
@@ -159,13 +159,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD8D8D8"/>
+        <fgColor rgb="FFFFFF99"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
+        <fgColor rgb="FFD8D8D8"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -251,6 +251,16 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -259,9 +269,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <right style="thin">
@@ -270,6 +277,21 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -281,47 +303,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -359,11 +340,30 @@
         <color rgb="FF000000"/>
       </top>
     </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -405,82 +405,79 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="true"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="true"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="true"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="true"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="5" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="5" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="5" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="17" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="3" borderId="16" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="true"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="3" borderId="17" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="true"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="3" borderId="18" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="true"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="3" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="5" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="true"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="3" borderId="20" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="5" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="true"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="5" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="true"/>
     </xf>
   </cellXfs>
@@ -812,126 +809,126 @@
       </c>
     </row>
     <row r="4" spans="1:44">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="15"/>
-      <c r="AA4" s="13" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="33"/>
+      <c r="AA4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="14"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="14"/>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="14"/>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="14"/>
-      <c r="AM4" s="14"/>
-      <c r="AN4" s="14"/>
-      <c r="AO4" s="15"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="33"/>
     </row>
     <row r="5" spans="1:44">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="19" t="s">
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="19" t="s">
+      <c r="I5" s="29"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="19" t="s">
+      <c r="L5" s="29"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="20"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="19" t="s">
+      <c r="O5" s="29"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="20"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="19" t="s">
+      <c r="R5" s="29"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U5" s="20"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="19" t="s">
+      <c r="U5" s="29"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="21"/>
-      <c r="AA5" s="19" t="s">
+      <c r="X5" s="29"/>
+      <c r="Y5" s="30"/>
+      <c r="AA5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="19" t="s">
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="19" t="s">
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="21"/>
-      <c r="AJ5" s="19" t="s">
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="21"/>
-      <c r="AM5" s="19" t="s">
+      <c r="AK5" s="29"/>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="AN5" s="20"/>
-      <c r="AO5" s="21"/>
+      <c r="AN5" s="29"/>
+      <c r="AO5" s="30"/>
     </row>
     <row r="6" spans="1:44" customHeight="1" ht="38.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1050,156 +1047,240 @@
       </c>
     </row>
     <row r="7" spans="1:44">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="24"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="17"/>
       <c r="Z7" s="10"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="23"/>
-      <c r="AH7" s="23"/>
-      <c r="AI7" s="23"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="23"/>
-      <c r="AL7" s="24"/>
-      <c r="AM7" s="23"/>
-      <c r="AN7" s="23"/>
-      <c r="AO7" s="24"/>
-      <c r="AQ7" s="16"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="17"/>
+      <c r="AQ7" s="12"/>
       <c r="AR7" s="4"/>
     </row>
     <row r="8" spans="1:44">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="25">
-        <v>45</v>
-      </c>
-      <c r="C8" s="26">
-        <v>45</v>
-      </c>
-      <c r="D8" s="27">
-        <v>45</v>
-      </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="27"/>
+      <c r="B8" s="18">
+        <v>45</v>
+      </c>
+      <c r="C8" s="19">
+        <v>45</v>
+      </c>
+      <c r="D8" s="20">
+        <v>45</v>
+      </c>
+      <c r="E8" s="18">
+        <v>45</v>
+      </c>
+      <c r="F8" s="19">
+        <v>45</v>
+      </c>
+      <c r="G8" s="20">
+        <v>45</v>
+      </c>
+      <c r="H8" s="18">
+        <v>45</v>
+      </c>
+      <c r="I8" s="19">
+        <v>45</v>
+      </c>
+      <c r="J8" s="20">
+        <v>45</v>
+      </c>
+      <c r="K8" s="18">
+        <v>45</v>
+      </c>
+      <c r="L8" s="19">
+        <v>45</v>
+      </c>
+      <c r="M8" s="20">
+        <v>45</v>
+      </c>
+      <c r="N8" s="18">
+        <v>45</v>
+      </c>
+      <c r="O8" s="19">
+        <v>45</v>
+      </c>
+      <c r="P8" s="20">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>45</v>
+      </c>
+      <c r="R8" s="19">
+        <v>45</v>
+      </c>
+      <c r="S8" s="20">
+        <v>45</v>
+      </c>
+      <c r="T8" s="19">
+        <v>45</v>
+      </c>
+      <c r="U8" s="19">
+        <v>45</v>
+      </c>
+      <c r="V8" s="19">
+        <v>45</v>
+      </c>
+      <c r="W8" s="18">
+        <v>45</v>
+      </c>
+      <c r="X8" s="19">
+        <v>45</v>
+      </c>
+      <c r="Y8" s="20">
+        <v>45</v>
+      </c>
       <c r="Z8" s="10"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="26"/>
-      <c r="AJ8" s="25"/>
-      <c r="AK8" s="26"/>
-      <c r="AL8" s="27"/>
-      <c r="AM8" s="26"/>
-      <c r="AN8" s="26"/>
-      <c r="AO8" s="27"/>
-      <c r="AQ8" s="17"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="20"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="20"/>
+      <c r="AQ8" s="13"/>
       <c r="AR8" s="5"/>
     </row>
     <row r="9" spans="1:44">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="28">
-        <v>45</v>
-      </c>
-      <c r="C9" s="29">
-        <v>45</v>
-      </c>
-      <c r="D9" s="30">
-        <v>45</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="30"/>
+      <c r="B9" s="21">
+        <v>45</v>
+      </c>
+      <c r="C9" s="22">
+        <v>45</v>
+      </c>
+      <c r="D9" s="23">
+        <v>45</v>
+      </c>
+      <c r="E9" s="21">
+        <v>45</v>
+      </c>
+      <c r="F9" s="22">
+        <v>45</v>
+      </c>
+      <c r="G9" s="23">
+        <v>45</v>
+      </c>
+      <c r="H9" s="21">
+        <v>45</v>
+      </c>
+      <c r="I9" s="22">
+        <v>45</v>
+      </c>
+      <c r="J9" s="23">
+        <v>45</v>
+      </c>
+      <c r="K9" s="21">
+        <v>45</v>
+      </c>
+      <c r="L9" s="22">
+        <v>45</v>
+      </c>
+      <c r="M9" s="23">
+        <v>45</v>
+      </c>
+      <c r="N9" s="21">
+        <v>45</v>
+      </c>
+      <c r="O9" s="22">
+        <v>45</v>
+      </c>
+      <c r="P9" s="23">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>45</v>
+      </c>
+      <c r="R9" s="22">
+        <v>45</v>
+      </c>
+      <c r="S9" s="23">
+        <v>45</v>
+      </c>
+      <c r="T9" s="22">
+        <v>45</v>
+      </c>
+      <c r="U9" s="22">
+        <v>45</v>
+      </c>
+      <c r="V9" s="22">
+        <v>45</v>
+      </c>
+      <c r="W9" s="21">
+        <v>45</v>
+      </c>
+      <c r="X9" s="22">
+        <v>45</v>
+      </c>
+      <c r="Y9" s="23">
+        <v>45</v>
+      </c>
       <c r="Z9" s="10"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="30"/>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="30"/>
-      <c r="AQ9" s="18"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="23"/>
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="23"/>
+      <c r="AQ9" s="14"/>
       <c r="AR9" s="6"/>
     </row>
   </sheetData>

--- a/Prototype/PHPSCRIPTS/Experiments/Results2016.xlsx
+++ b/Prototype/PHPSCRIPTS/Experiments/Results2016.xlsx
@@ -1170,21 +1170,51 @@
         <v>45</v>
       </c>
       <c r="Z8" s="10"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="18"/>
-      <c r="AK8" s="19"/>
-      <c r="AL8" s="20"/>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="20"/>
+      <c r="AA8" s="18">
+        <v>60</v>
+      </c>
+      <c r="AB8" s="19">
+        <v>60</v>
+      </c>
+      <c r="AC8" s="19">
+        <v>60</v>
+      </c>
+      <c r="AD8" s="18">
+        <v>60</v>
+      </c>
+      <c r="AE8" s="19">
+        <v>60</v>
+      </c>
+      <c r="AF8" s="20">
+        <v>60</v>
+      </c>
+      <c r="AG8" s="19">
+        <v>60</v>
+      </c>
+      <c r="AH8" s="19">
+        <v>60</v>
+      </c>
+      <c r="AI8" s="19">
+        <v>60</v>
+      </c>
+      <c r="AJ8" s="18">
+        <v>60</v>
+      </c>
+      <c r="AK8" s="19">
+        <v>60</v>
+      </c>
+      <c r="AL8" s="20">
+        <v>60</v>
+      </c>
+      <c r="AM8" s="19">
+        <v>60</v>
+      </c>
+      <c r="AN8" s="19">
+        <v>60</v>
+      </c>
+      <c r="AO8" s="20">
+        <v>60</v>
+      </c>
       <c r="AQ8" s="13"/>
       <c r="AR8" s="5"/>
     </row>
@@ -1265,21 +1295,51 @@
         <v>45</v>
       </c>
       <c r="Z9" s="10"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="23"/>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="23"/>
+      <c r="AA9" s="21">
+        <v>60</v>
+      </c>
+      <c r="AB9" s="22">
+        <v>60</v>
+      </c>
+      <c r="AC9" s="22">
+        <v>60</v>
+      </c>
+      <c r="AD9" s="21">
+        <v>60</v>
+      </c>
+      <c r="AE9" s="22">
+        <v>60</v>
+      </c>
+      <c r="AF9" s="23">
+        <v>60</v>
+      </c>
+      <c r="AG9" s="22">
+        <v>60</v>
+      </c>
+      <c r="AH9" s="22">
+        <v>60</v>
+      </c>
+      <c r="AI9" s="22">
+        <v>60</v>
+      </c>
+      <c r="AJ9" s="21">
+        <v>60</v>
+      </c>
+      <c r="AK9" s="22">
+        <v>60</v>
+      </c>
+      <c r="AL9" s="23">
+        <v>60</v>
+      </c>
+      <c r="AM9" s="22">
+        <v>60</v>
+      </c>
+      <c r="AN9" s="22">
+        <v>60</v>
+      </c>
+      <c r="AO9" s="23">
+        <v>60</v>
+      </c>
       <c r="AQ9" s="14"/>
       <c r="AR9" s="6"/>
     </row>
